--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE77F835-6A15-48D8-85ED-E6A8F627D574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F03CB-2F24-4DBF-9A23-E0F8F0DB018C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,6 +610,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,18 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25"/>
@@ -1049,39 +1049,39 @@
     <row r="1" spans="1:16" s="2" customFormat="1"/>
     <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
@@ -1124,31 +1124,31 @@
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>13</v>
@@ -1242,7 +1242,7 @@
     <row r="11" spans="1:16" ht="6" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
@@ -1262,10 +1262,10 @@
     <row r="12" spans="1:16" ht="6" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="23"/>
       <c r="E12" s="33"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="33"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -1298,7 +1298,7 @@
     <row r="14" spans="1:16" ht="6" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="23"/>
@@ -1318,10 +1318,10 @@
     <row r="15" spans="1:16" ht="6" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="23"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="33"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -1374,7 +1374,7 @@
     <row r="18" spans="1:25" ht="6" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
@@ -1394,10 +1394,10 @@
     <row r="19" spans="1:25" ht="6" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -1430,7 +1430,7 @@
     <row r="21" spans="1:25" ht="6" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
@@ -1450,10 +1450,10 @@
     <row r="22" spans="1:25" ht="6" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="23"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="F22" s="33"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -1486,7 +1486,7 @@
     <row r="24" spans="1:25" ht="6" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="23"/>
@@ -1506,10 +1506,10 @@
     <row r="25" spans="1:25" ht="6" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="23"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="F25" s="33"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
@@ -1542,7 +1542,7 @@
     <row r="27" spans="1:25" ht="6" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="23"/>
@@ -1562,10 +1562,10 @@
     <row r="28" spans="1:25" ht="6" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="45"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="33"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -1619,15 +1619,14 @@
     <row r="31" spans="1:25" ht="6" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="32"/>
       <c r="G31" s="32"/>
       <c r="H31" s="32"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="26"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
@@ -1639,7 +1638,7 @@
     <row r="32" spans="1:25" ht="6" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="46"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -1675,7 +1674,7 @@
     <row r="34" spans="1:16" ht="6" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="23"/>
@@ -1694,7 +1693,7 @@
     <row r="35" spans="1:16" ht="6" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="46"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -1750,7 +1749,7 @@
     <row r="38" spans="1:16" ht="6" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="23"/>
@@ -1770,7 +1769,7 @@
     <row r="39" spans="1:16" ht="6" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="44"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -1806,7 +1805,7 @@
     <row r="41" spans="1:16" ht="6" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="23"/>
@@ -1826,7 +1825,7 @@
     <row r="42" spans="1:16" ht="6" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="44"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1862,7 +1861,7 @@
     <row r="44" spans="1:16" ht="6" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="23"/>
@@ -1882,7 +1881,7 @@
     <row r="45" spans="1:16" ht="6" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="44"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="23"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -1918,7 +1917,7 @@
     <row r="47" spans="1:16" ht="6" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="23"/>
@@ -1938,7 +1937,7 @@
     <row r="48" spans="1:16" ht="6" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="44"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="23"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -1974,7 +1973,7 @@
     <row r="50" spans="1:16" ht="6" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="23"/>
@@ -1994,7 +1993,7 @@
     <row r="51" spans="1:16" ht="6" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="44"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="23"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2030,7 +2029,7 @@
     <row r="53" spans="1:16" ht="6.6" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="22"/>
@@ -2050,7 +2049,7 @@
     <row r="54" spans="1:16" ht="6.6" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="47"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="22"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -2142,11 +2141,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2154,12 +2154,11 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9F03CB-2F24-4DBF-9A23-E0F8F0DB018C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C8300-2DA0-4986-8D83-FE0D0468D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25"/>
@@ -1398,7 +1398,7 @@
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -1454,7 +1454,7 @@
       <c r="D22" s="23"/>
       <c r="E22" s="20"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -1510,7 +1510,7 @@
       <c r="D25" s="23"/>
       <c r="E25" s="20"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -1566,7 +1566,7 @@
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -1642,7 +1642,7 @@
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -1697,7 +1697,7 @@
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
+      <c r="G35" s="33"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>

--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537C8300-2DA0-4986-8D83-FE0D0468D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DE5A2D-7354-41A5-B8A8-420058E1C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,44 +610,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25"/>
@@ -1049,39 +1049,39 @@
     <row r="1" spans="1:16" s="2" customFormat="1"/>
     <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
@@ -1124,31 +1124,31 @@
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="38" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="43"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>13</v>
@@ -1242,7 +1242,7 @@
     <row r="11" spans="1:16" ht="6" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
@@ -1262,7 +1262,7 @@
     <row r="12" spans="1:16" ht="6" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="23"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -1298,7 +1298,7 @@
     <row r="14" spans="1:16" ht="6" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="23"/>
@@ -1318,7 +1318,7 @@
     <row r="15" spans="1:16" ht="6" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="23"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -1374,7 +1374,7 @@
     <row r="18" spans="1:25" ht="6" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="45" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
@@ -1394,11 +1394,11 @@
     <row r="19" spans="1:25" ht="6" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -1430,7 +1430,7 @@
     <row r="21" spans="1:25" ht="6" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
@@ -1450,11 +1450,11 @@
     <row r="22" spans="1:25" ht="6" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="23"/>
       <c r="E22" s="20"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -1486,7 +1486,7 @@
     <row r="24" spans="1:25" ht="6" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="45" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="23"/>
@@ -1506,11 +1506,11 @@
     <row r="25" spans="1:25" ht="6" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="23"/>
       <c r="E25" s="20"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -1542,7 +1542,7 @@
     <row r="27" spans="1:25" ht="6" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="45" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="23"/>
@@ -1562,11 +1562,11 @@
     <row r="28" spans="1:25" ht="6" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
+      <c r="G28" s="20"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -1619,7 +1619,7 @@
     <row r="31" spans="1:25" ht="6" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
@@ -1638,11 +1638,11 @@
     <row r="32" spans="1:25" ht="6" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="38"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="33"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
@@ -1674,7 +1674,7 @@
     <row r="34" spans="1:16" ht="6" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="23"/>
@@ -1693,11 +1693,11 @@
     <row r="35" spans="1:16" ht="6" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="38"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="33"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
       <c r="J35" s="20"/>
@@ -1749,7 +1749,7 @@
     <row r="38" spans="1:16" ht="6" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="44" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="23"/>
@@ -1769,7 +1769,7 @@
     <row r="39" spans="1:16" ht="6" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="44"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -1805,7 +1805,7 @@
     <row r="41" spans="1:16" ht="6" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="35" t="s">
+      <c r="C41" s="44" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="23"/>
@@ -1825,7 +1825,7 @@
     <row r="42" spans="1:16" ht="6" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="35"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1861,7 +1861,7 @@
     <row r="44" spans="1:16" ht="6" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="44" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="23"/>
@@ -1881,7 +1881,7 @@
     <row r="45" spans="1:16" ht="6" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="35"/>
+      <c r="C45" s="44"/>
       <c r="D45" s="23"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -1917,7 +1917,7 @@
     <row r="47" spans="1:16" ht="6" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="35" t="s">
+      <c r="C47" s="44" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="23"/>
@@ -1937,7 +1937,7 @@
     <row r="48" spans="1:16" ht="6" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="35"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="23"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -1973,7 +1973,7 @@
     <row r="50" spans="1:16" ht="6" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="44" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="23"/>
@@ -1993,7 +1993,7 @@
     <row r="51" spans="1:16" ht="6" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="35"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="23"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2029,7 +2029,7 @@
     <row r="53" spans="1:16" ht="6.6" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="47" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="22"/>
@@ -2049,7 +2049,7 @@
     <row r="54" spans="1:16" ht="6.6" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="36"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="22"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -2141,12 +2141,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2154,11 +2153,12 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DE5A2D-7354-41A5-B8A8-420058E1C74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051CF349-71F0-4D8D-ACD6-1F49C029381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -610,6 +610,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -636,18 +648,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="I45" sqref="I45:J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25"/>
@@ -1049,39 +1049,39 @@
     <row r="1" spans="1:16" s="2" customFormat="1"/>
     <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
@@ -1124,31 +1124,31 @@
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="42" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="39"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>13</v>
@@ -1242,7 +1242,7 @@
     <row r="11" spans="1:16" ht="6" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
@@ -1262,7 +1262,7 @@
     <row r="12" spans="1:16" ht="6" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="43"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="23"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -1298,7 +1298,7 @@
     <row r="14" spans="1:16" ht="6" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="23"/>
@@ -1318,7 +1318,7 @@
     <row r="15" spans="1:16" ht="6" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="35"/>
+      <c r="C15" s="39"/>
       <c r="D15" s="23"/>
       <c r="E15" s="33"/>
       <c r="F15" s="33"/>
@@ -1374,7 +1374,7 @@
     <row r="18" spans="1:25" ht="6" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
@@ -1394,11 +1394,11 @@
     <row r="19" spans="1:25" ht="6" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="33"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -1430,7 +1430,7 @@
     <row r="21" spans="1:25" ht="6" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
@@ -1450,11 +1450,11 @@
     <row r="22" spans="1:25" ht="6" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="23"/>
       <c r="E22" s="20"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="20"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -1486,7 +1486,7 @@
     <row r="24" spans="1:25" ht="6" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="23"/>
@@ -1506,11 +1506,11 @@
     <row r="25" spans="1:25" ht="6" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="23"/>
       <c r="E25" s="20"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="33"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
@@ -1542,7 +1542,7 @@
     <row r="27" spans="1:25" ht="6" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="37" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="23"/>
@@ -1562,11 +1562,11 @@
     <row r="28" spans="1:25" ht="6" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="45"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="33"/>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
@@ -1619,7 +1619,7 @@
     <row r="31" spans="1:25" ht="6" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="38" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
@@ -1638,13 +1638,13 @@
     <row r="32" spans="1:25" ht="6" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="46"/>
+      <c r="C32" s="38"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
       <c r="J32" s="20"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
@@ -1674,7 +1674,7 @@
     <row r="34" spans="1:16" ht="6" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="46" t="s">
+      <c r="C34" s="38" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="23"/>
@@ -1693,13 +1693,13 @@
     <row r="35" spans="1:16" ht="6" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="46"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
       <c r="J35" s="20"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
@@ -1749,7 +1749,7 @@
     <row r="38" spans="1:16" ht="6" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="44" t="s">
+      <c r="C38" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="23"/>
@@ -1769,14 +1769,14 @@
     <row r="39" spans="1:16" ht="6" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="44"/>
+      <c r="C39" s="35"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="20"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
@@ -1805,7 +1805,7 @@
     <row r="41" spans="1:16" ht="6" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="44" t="s">
+      <c r="C41" s="35" t="s">
         <v>16</v>
       </c>
       <c r="D41" s="23"/>
@@ -1825,14 +1825,14 @@
     <row r="42" spans="1:16" ht="6" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="44"/>
+      <c r="C42" s="35"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
       <c r="K42" s="20"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
@@ -1861,7 +1861,7 @@
     <row r="44" spans="1:16" ht="6" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="35" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="23"/>
@@ -1881,14 +1881,14 @@
     <row r="45" spans="1:16" ht="6" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="44"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="23"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -1917,7 +1917,7 @@
     <row r="47" spans="1:16" ht="6" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="44" t="s">
+      <c r="C47" s="35" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="23"/>
@@ -1937,7 +1937,7 @@
     <row r="48" spans="1:16" ht="6" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="44"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="23"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -1973,7 +1973,7 @@
     <row r="50" spans="1:16" ht="6" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="19"/>
-      <c r="C50" s="44" t="s">
+      <c r="C50" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="23"/>
@@ -1993,7 +1993,7 @@
     <row r="51" spans="1:16" ht="6" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="19"/>
-      <c r="C51" s="44"/>
+      <c r="C51" s="35"/>
       <c r="D51" s="23"/>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -2029,7 +2029,7 @@
     <row r="53" spans="1:16" ht="6.6" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="19"/>
-      <c r="C53" s="47" t="s">
+      <c r="C53" s="36" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="22"/>
@@ -2049,7 +2049,7 @@
     <row r="54" spans="1:16" ht="6.6" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="19"/>
-      <c r="C54" s="47"/>
+      <c r="C54" s="36"/>
       <c r="D54" s="22"/>
       <c r="E54" s="20"/>
       <c r="F54" s="20"/>
@@ -2141,11 +2141,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2153,12 +2154,11 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051CF349-71F0-4D8D-ACD6-1F49C029381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AFA0FB-C9C7-4148-A991-2EC6C8CDD81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>기획 및 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,18 +83,6 @@
   </si>
   <si>
     <t>추가 분석 및 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정항목의 기술통계분석 및 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신뢰도 및 타당성 검증 및 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각자에 맞는 데이터분석 및 시각화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,12 +127,16 @@
     <t xml:space="preserve">      설계, 기능정의, 데이터수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>각 항목에 대한 데이터 분석 및 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +209,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FFA47160"/>
-      <name val="Pretendard Medium"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="9" tint="0.59999389629810485"/>
       <name val="Pretendard Medium"/>
       <family val="3"/>
       <charset val="129"/>
@@ -504,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,9 +568,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -595,10 +577,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -609,45 +591,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1029,10 +1011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45:J45"/>
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25"/>
@@ -1049,39 +1031,39 @@
     <row r="1" spans="1:16" s="2" customFormat="1"/>
     <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="A2" s="2"/>
-      <c r="B2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="B2" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="2"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
@@ -1124,31 +1106,31 @@
     <row r="6" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
+      <c r="E6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="43"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>13</v>
@@ -1242,12 +1224,12 @@
     <row r="11" spans="1:16" ht="6" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1262,10 +1244,10 @@
     <row r="12" spans="1:16" ht="6" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -1298,12 +1280,12 @@
     <row r="14" spans="1:16" ht="6" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="39" t="s">
-        <v>23</v>
+      <c r="C14" s="34" t="s">
+        <v>20</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -1318,10 +1300,10 @@
     <row r="15" spans="1:16" ht="6" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
@@ -1374,13 +1356,13 @@
     <row r="18" spans="1:25" ht="6" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="44" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -1394,11 +1376,11 @@
     <row r="19" spans="1:25" ht="6" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -1430,13 +1412,13 @@
     <row r="21" spans="1:25" ht="6" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="44" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -1450,11 +1432,11 @@
     <row r="22" spans="1:25" ht="6" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="23"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -1486,15 +1468,15 @@
     <row r="24" spans="1:25" ht="6" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="44" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="20"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
@@ -1506,13 +1488,13 @@
     <row r="25" spans="1:25" ht="6" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="44"/>
       <c r="D25" s="23"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
@@ -1542,15 +1524,15 @@
     <row r="27" spans="1:25" ht="6" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
       <c r="J27" s="20"/>
       <c r="K27" s="20"/>
       <c r="L27" s="20"/>
@@ -1562,13 +1544,13 @@
     <row r="28" spans="1:25" ht="6" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
       <c r="L28" s="20"/>
@@ -1614,20 +1596,20 @@
       <c r="N30" s="20"/>
       <c r="O30" s="4"/>
       <c r="P30" s="2"/>
-      <c r="Y30" s="34"/>
+      <c r="Y30" s="33"/>
     </row>
     <row r="31" spans="1:25" ht="6" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="20"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="26"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -1638,14 +1620,14 @@
     <row r="32" spans="1:25" ht="6" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="38"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -1674,16 +1656,17 @@
     <row r="34" spans="1:16" ht="6" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="38" t="s">
+      <c r="C34" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="23"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="K34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
@@ -1693,15 +1676,15 @@
     <row r="35" spans="1:16" ht="6" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="38"/>
+      <c r="C35" s="45"/>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -1749,7 +1732,7 @@
     <row r="38" spans="1:16" ht="6" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="43" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="23"/>
@@ -1757,11 +1740,10 @@
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="20"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
       <c r="N38" s="20"/>
       <c r="O38" s="4"/>
       <c r="P38" s="2"/>
@@ -1769,15 +1751,14 @@
     <row r="39" spans="1:16" ht="6" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="20"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
@@ -1805,19 +1786,18 @@
     <row r="41" spans="1:16" ht="6" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="35" t="s">
-        <v>16</v>
+      <c r="C41" s="43" t="s">
+        <v>21</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="20"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="20"/>
       <c r="O41" s="4"/>
       <c r="P41" s="2"/>
@@ -1825,15 +1805,14 @@
     <row r="42" spans="1:16" ht="6" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="35"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="20"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
@@ -1861,19 +1840,19 @@
     <row r="44" spans="1:16" ht="6" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="35" t="s">
-        <v>17</v>
+      <c r="C44" s="43" t="s">
+        <v>15</v>
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
       <c r="N44" s="20"/>
       <c r="O44" s="4"/>
       <c r="P44" s="2"/>
@@ -1881,14 +1860,14 @@
     <row r="45" spans="1:16" ht="6" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="35"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="23"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
@@ -1914,13 +1893,13 @@
       <c r="O46" s="4"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="6" customHeight="1">
+    <row r="47" spans="1:16" ht="6.6" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="23"/>
+      <c r="C47" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="22"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
@@ -1928,17 +1907,17 @@
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
       <c r="O47" s="4"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="6" customHeight="1">
+    <row r="48" spans="1:16" ht="6.6" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="23"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
@@ -1952,201 +1931,86 @@
       <c r="O48" s="4"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="6" customHeight="1">
+    <row r="49" spans="1:16" ht="3" customHeight="1">
       <c r="A49" s="3"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="4"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="5"/>
       <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" ht="6" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="4"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="6" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="4"/>
+    <row r="51" spans="1:16" ht="9" customHeight="1">
+      <c r="A51" s="2"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="31"/>
+      <c r="N51" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16" ht="6" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" ht="6.6" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" ht="6.6" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" ht="3" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="6" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="9" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="32"/>
-      <c r="N57" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+    <row r="52" spans="1:16">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="16">
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2154,11 +2018,12 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5AFA0FB-C9C7-4148-A991-2EC6C8CDD81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACA2869-0C47-47AE-B2D7-B418C6D9BA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,6 +592,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -618,18 +630,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,10 +1014,10 @@
   <dimension ref="A1:Y52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1"/>
     <col min="2" max="2" width="0.625" style="1" customWidth="1"/>
@@ -1028,46 +1028,46 @@
     <col min="16" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1"/>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="4.9000000000000004" customHeight="1">
+    <row r="4" spans="1:16" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1085,7 +1085,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="4.1500000000000004" customHeight="1">
+    <row r="5" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1103,34 +1103,34 @@
       <c r="O5" s="7"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="38"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>13</v>
@@ -1165,7 +1165,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -1183,7 +1183,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="12" customHeight="1">
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="19"/>
       <c r="C9" s="21" t="s">
@@ -1203,7 +1203,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="6" customHeight="1">
+    <row r="10" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="19"/>
       <c r="C10" s="22"/>
@@ -1221,10 +1221,10 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="6" customHeight="1">
+    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="46" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
@@ -1241,10 +1241,10 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="6" customHeight="1">
+    <row r="12" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="23"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -1259,7 +1259,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="6" customHeight="1">
+    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="19"/>
       <c r="C13" s="23"/>
@@ -1277,10 +1277,10 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="6" customHeight="1">
+    <row r="14" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="38" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="23"/>
@@ -1297,10 +1297,10 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="6" customHeight="1">
+    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="23"/>
       <c r="E15" s="32"/>
       <c r="F15" s="32"/>
@@ -1315,7 +1315,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="6" customHeight="1">
+    <row r="16" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="19"/>
       <c r="C16" s="23"/>
@@ -1333,7 +1333,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="12" customHeight="1">
+    <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="19"/>
       <c r="C17" s="24" t="s">
@@ -1353,10 +1353,10 @@
       <c r="O17" s="4"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="6" customHeight="1">
+    <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
@@ -1373,10 +1373,10 @@
       <c r="O18" s="4"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="6" customHeight="1">
+    <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="44"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="23"/>
       <c r="E19" s="20"/>
       <c r="F19" s="32"/>
@@ -1391,7 +1391,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="6" customHeight="1">
+    <row r="20" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="19"/>
       <c r="C20" s="23"/>
@@ -1409,10 +1409,10 @@
       <c r="O20" s="4"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="6" customHeight="1">
+    <row r="21" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
@@ -1429,10 +1429,10 @@
       <c r="O21" s="4"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="6" customHeight="1">
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="44"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="23"/>
       <c r="E22" s="20"/>
       <c r="F22" s="32"/>
@@ -1447,7 +1447,7 @@
       <c r="O22" s="4"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="6" customHeight="1">
+    <row r="23" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
@@ -1465,10 +1465,10 @@
       <c r="O23" s="4"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="6" customHeight="1">
+    <row r="24" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="23"/>
@@ -1485,10 +1485,10 @@
       <c r="O24" s="4"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="6" customHeight="1">
+    <row r="25" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="44"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="23"/>
       <c r="E25" s="20"/>
       <c r="F25" s="2"/>
@@ -1503,7 +1503,7 @@
       <c r="O25" s="4"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="6" customHeight="1">
+    <row r="26" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="19"/>
       <c r="C26" s="23"/>
@@ -1521,10 +1521,10 @@
       <c r="O26" s="4"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="6" customHeight="1">
+    <row r="27" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="44" t="s">
+      <c r="C27" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="23"/>
@@ -1541,10 +1541,10 @@
       <c r="O27" s="4"/>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="1:25" ht="6" customHeight="1">
+    <row r="28" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="44"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
       <c r="F28" s="2"/>
@@ -1559,7 +1559,7 @@
       <c r="O28" s="4"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="6" customHeight="1">
+    <row r="29" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="19"/>
       <c r="C29" s="23"/>
@@ -1577,7 +1577,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="12" customHeight="1">
+    <row r="30" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="19"/>
       <c r="C30" s="24" t="s">
@@ -1598,10 +1598,10 @@
       <c r="P30" s="2"/>
       <c r="Y30" s="33"/>
     </row>
-    <row r="31" spans="1:25" ht="6" customHeight="1">
+    <row r="31" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
@@ -1617,10 +1617,10 @@
       <c r="O31" s="4"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="6" customHeight="1">
+    <row r="32" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="45"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -1635,7 +1635,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="6" customHeight="1">
+    <row r="33" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="19"/>
       <c r="C33" s="23"/>
@@ -1653,10 +1653,10 @@
       <c r="O33" s="4"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="6" customHeight="1">
+    <row r="34" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="37" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="23"/>
@@ -1673,10 +1673,10 @@
       <c r="O34" s="4"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="6" customHeight="1">
+    <row r="35" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="45"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
@@ -1691,7 +1691,7 @@
       <c r="O35" s="4"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="6" customHeight="1">
+    <row r="36" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="19"/>
       <c r="C36" s="23"/>
@@ -1709,7 +1709,7 @@
       <c r="O36" s="4"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="12" customHeight="1">
+    <row r="37" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="19"/>
       <c r="C37" s="24" t="s">
@@ -1729,10 +1729,10 @@
       <c r="O37" s="4"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="6" customHeight="1">
+    <row r="38" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="23"/>
@@ -1748,10 +1748,10 @@
       <c r="O38" s="4"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="6" customHeight="1">
+    <row r="39" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -1759,13 +1759,13 @@
       <c r="H39" s="20"/>
       <c r="J39" s="32"/>
       <c r="K39" s="32"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
       <c r="N39" s="20"/>
       <c r="O39" s="4"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="6" customHeight="1">
+    <row r="40" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="19"/>
       <c r="C40" s="23"/>
@@ -1783,10 +1783,10 @@
       <c r="O40" s="4"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="6" customHeight="1">
+    <row r="41" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="34" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="23"/>
@@ -1802,10 +1802,10 @@
       <c r="O41" s="4"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="6" customHeight="1">
+    <row r="42" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="43"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1813,13 +1813,13 @@
       <c r="H42" s="20"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="20"/>
       <c r="O42" s="4"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="6" customHeight="1">
+    <row r="43" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="19"/>
       <c r="C43" s="23"/>
@@ -1837,10 +1837,10 @@
       <c r="O43" s="4"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="6" customHeight="1">
+    <row r="44" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="43" t="s">
+      <c r="C44" s="34" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="23"/>
@@ -1857,10 +1857,10 @@
       <c r="O44" s="4"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="6" customHeight="1">
+    <row r="45" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="43"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="23"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -1869,13 +1869,13 @@
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
       <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
       <c r="N45" s="20"/>
       <c r="O45" s="4"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="6" customHeight="1">
+    <row r="46" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="19"/>
       <c r="C46" s="23"/>
@@ -1893,10 +1893,10 @@
       <c r="O46" s="4"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="6.6" customHeight="1">
+    <row r="47" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="19"/>
-      <c r="C47" s="46" t="s">
+      <c r="C47" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="22"/>
@@ -1913,10 +1913,10 @@
       <c r="O47" s="4"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="6.6" customHeight="1">
+    <row r="48" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="19"/>
-      <c r="C48" s="46"/>
+      <c r="C48" s="35"/>
       <c r="D48" s="22"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
@@ -1926,12 +1926,12 @@
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
       <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="M48" s="32"/>
       <c r="N48" s="20"/>
       <c r="O48" s="4"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="3" customHeight="1">
+    <row r="49" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="26"/>
       <c r="C49" s="27"/>
@@ -1949,7 +1949,7 @@
       <c r="O49" s="5"/>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" ht="6" customHeight="1">
+    <row r="50" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
@@ -1967,7 +1967,7 @@
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
     </row>
-    <row r="51" spans="1:16" ht="9" customHeight="1">
+    <row r="51" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="28"/>
       <c r="C51" s="28"/>
@@ -1989,7 +1989,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2008,6 +2008,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C47:C48"/>
@@ -2018,12 +2024,6 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051CF349-71F0-4D8D-ACD6-1F49C029381B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2537FAC0-3F74-4F8F-9ED7-92BE80CB5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4770" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>기획 및 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연구 내용 및 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트의 구성</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,18 +79,6 @@
   </si>
   <si>
     <t>추가 분석 및 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>측정항목의 기술통계분석 및 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신뢰도 및 타당성 검증 및 시각화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각자에 맞는 데이터분석 및 시각화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -139,12 +123,16 @@
     <t xml:space="preserve">      설계, 기능정의, 데이터수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>각 항목에 대한 데이터 분석 및 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="12">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +205,6 @@
     <font>
       <sz val="8"/>
       <color rgb="FFA47160"/>
-      <name val="Pretendard Medium"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="9" tint="0.59999389629810485"/>
       <name val="Pretendard Medium"/>
       <family val="3"/>
       <charset val="129"/>
@@ -504,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,9 +564,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -595,10 +573,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -609,6 +587,33 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -620,33 +625,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1029,13 +1007,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y58"/>
+  <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45:J45"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.25" style="1"/>
     <col min="2" max="2" width="0.625" style="1" customWidth="1"/>
@@ -1046,46 +1024,46 @@
     <col min="16" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1"/>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="B2" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="4.9000000000000004" customHeight="1">
+    <row r="4" spans="1:16" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
@@ -1103,7 +1081,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="4.1500000000000004" customHeight="1">
+    <row r="5" spans="1:16" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1121,34 +1099,34 @@
       <c r="O5" s="7"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
+      <c r="E6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="43"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>13</v>
@@ -1183,7 +1161,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
@@ -1201,7 +1179,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="12" customHeight="1">
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="19"/>
       <c r="C9" s="21" t="s">
@@ -1221,7 +1199,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="6" customHeight="1">
+    <row r="10" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="19"/>
       <c r="C10" s="22"/>
@@ -1239,15 +1217,15 @@
       <c r="O10" s="4"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="6" customHeight="1">
+    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -1259,13 +1237,13 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="6" customHeight="1">
+    <row r="12" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="47"/>
+      <c r="C12" s="42"/>
       <c r="D12" s="23"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -1277,7 +1255,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="6" customHeight="1">
+    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="19"/>
       <c r="C13" s="23"/>
@@ -1295,16 +1273,16 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="6" customHeight="1">
+    <row r="14" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="39" t="s">
-        <v>23</v>
+      <c r="C14" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
@@ -1315,14 +1293,14 @@
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="6" customHeight="1">
+    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="39"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="20"/>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -1333,7 +1311,7 @@
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="6" customHeight="1">
+    <row r="16" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="19"/>
       <c r="C16" s="23"/>
@@ -1351,7 +1329,7 @@
       <c r="O16" s="4"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:25" ht="12" customHeight="1">
+    <row r="17" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="19"/>
       <c r="C17" s="24" t="s">
@@ -1371,16 +1349,16 @@
       <c r="O17" s="4"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:25" ht="6" customHeight="1">
+    <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="45" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="20"/>
@@ -1391,14 +1369,14 @@
       <c r="O18" s="4"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:25" ht="6" customHeight="1">
+    <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="37"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="23"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
       <c r="J19" s="20"/>
@@ -1409,7 +1387,7 @@
       <c r="O19" s="4"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:25" ht="6" customHeight="1">
+    <row r="20" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="19"/>
       <c r="C20" s="23"/>
@@ -1427,16 +1405,16 @@
       <c r="O20" s="4"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:25" ht="6" customHeight="1">
+    <row r="21" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="45" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
       <c r="J21" s="20"/>
@@ -1447,25 +1425,25 @@
       <c r="O21" s="4"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:25" ht="6" customHeight="1">
+    <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="37"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="23"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="4"/>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:25" ht="6" customHeight="1">
+    <row r="23" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
@@ -1483,16 +1461,16 @@
       <c r="O23" s="4"/>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:25" ht="6" customHeight="1">
+    <row r="24" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="37" t="s">
-        <v>10</v>
+      <c r="C24" s="45" t="s">
+        <v>4</v>
       </c>
       <c r="D24" s="23"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
       <c r="J24" s="20"/>
@@ -1503,25 +1481,25 @@
       <c r="O24" s="4"/>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="1:25" ht="6" customHeight="1">
+    <row r="25" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="23"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
-      <c r="N25" s="25"/>
+      <c r="N25" s="20"/>
       <c r="O25" s="4"/>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="1:25" ht="6" customHeight="1">
+    <row r="26" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="19"/>
       <c r="C26" s="23"/>
@@ -1539,16 +1517,16 @@
       <c r="O26" s="4"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:25" ht="6" customHeight="1">
+    <row r="27" spans="1:25" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="23"/>
+      <c r="C27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="20"/>
       <c r="E27" s="20"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
@@ -1558,16 +1536,19 @@
       <c r="N27" s="20"/>
       <c r="O27" s="4"/>
       <c r="P27" s="2"/>
-    </row>
-    <row r="28" spans="1:25" ht="6" customHeight="1">
+      <c r="Y27" s="33"/>
+    </row>
+    <row r="28" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="37"/>
+      <c r="C28" s="46" t="s">
+        <v>10</v>
+      </c>
       <c r="D28" s="23"/>
       <c r="E28" s="20"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="20"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="20"/>
       <c r="J28" s="20"/>
       <c r="K28" s="20"/>
@@ -1577,15 +1558,15 @@
       <c r="O28" s="4"/>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="1:25" ht="6" customHeight="1">
+    <row r="29" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="23"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="23"/>
       <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
       <c r="I29" s="20"/>
       <c r="J29" s="20"/>
       <c r="K29" s="20"/>
@@ -1595,13 +1576,11 @@
       <c r="O29" s="4"/>
       <c r="P29" s="2"/>
     </row>
-    <row r="30" spans="1:25" ht="12" customHeight="1">
+    <row r="30" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="20"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
       <c r="E30" s="20"/>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -1614,20 +1593,20 @@
       <c r="N30" s="20"/>
       <c r="O30" s="4"/>
       <c r="P30" s="2"/>
-      <c r="Y30" s="34"/>
-    </row>
-    <row r="31" spans="1:25" ht="6" customHeight="1">
+    </row>
+    <row r="31" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="46" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="20"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="26"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
       <c r="K31" s="20"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
@@ -1635,17 +1614,17 @@
       <c r="O31" s="4"/>
       <c r="P31" s="2"/>
     </row>
-    <row r="32" spans="1:25" ht="6" customHeight="1">
+    <row r="32" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="38"/>
+      <c r="C32" s="46"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
       <c r="K32" s="20"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
@@ -1653,7 +1632,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="2"/>
     </row>
-    <row r="33" spans="1:16" ht="6" customHeight="1">
+    <row r="33" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="19"/>
       <c r="C33" s="23"/>
@@ -1671,18 +1650,19 @@
       <c r="O33" s="4"/>
       <c r="P33" s="2"/>
     </row>
-    <row r="34" spans="1:16" ht="6" customHeight="1">
+    <row r="34" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="19"/>
-      <c r="C34" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="23"/>
+      <c r="C34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="20"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
@@ -1690,17 +1670,19 @@
       <c r="O34" s="4"/>
       <c r="P34" s="2"/>
     </row>
-    <row r="35" spans="1:16" ht="6" customHeight="1">
+    <row r="35" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="38"/>
+      <c r="C35" s="43" t="s">
+        <v>12</v>
+      </c>
       <c r="D35" s="23"/>
       <c r="E35" s="20"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
       <c r="K35" s="20"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
@@ -1708,17 +1690,17 @@
       <c r="O35" s="4"/>
       <c r="P35" s="2"/>
     </row>
-    <row r="36" spans="1:16" ht="6" customHeight="1">
+    <row r="36" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="23"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="23"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
       <c r="K36" s="20"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
@@ -1726,13 +1708,11 @@
       <c r="O36" s="4"/>
       <c r="P36" s="2"/>
     </row>
-    <row r="37" spans="1:16" ht="12" customHeight="1">
+    <row r="37" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="19"/>
-      <c r="C37" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="20"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
@@ -1746,45 +1726,45 @@
       <c r="O37" s="4"/>
       <c r="P37" s="2"/>
     </row>
-    <row r="38" spans="1:16" ht="6" customHeight="1">
+    <row r="38" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="35" t="s">
-        <v>13</v>
+      <c r="C38" s="43" t="s">
+        <v>20</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
       <c r="O38" s="4"/>
       <c r="P38" s="2"/>
     </row>
-    <row r="39" spans="1:16" ht="6" customHeight="1">
+    <row r="39" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="35"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
       <c r="O39" s="4"/>
       <c r="P39" s="2"/>
     </row>
-    <row r="40" spans="1:16" ht="6" customHeight="1">
+    <row r="40" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="19"/>
       <c r="C40" s="23"/>
@@ -1802,45 +1782,45 @@
       <c r="O40" s="4"/>
       <c r="P40" s="2"/>
     </row>
-    <row r="41" spans="1:16" ht="6" customHeight="1">
+    <row r="41" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="35" t="s">
-        <v>16</v>
+      <c r="C41" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
       <c r="N41" s="20"/>
       <c r="O41" s="4"/>
       <c r="P41" s="2"/>
     </row>
-    <row r="42" spans="1:16" ht="6" customHeight="1">
+    <row r="42" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="35"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="33"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
       <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
       <c r="N42" s="20"/>
       <c r="O42" s="4"/>
       <c r="P42" s="2"/>
     </row>
-    <row r="43" spans="1:16" ht="6" customHeight="1">
+    <row r="43" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="19"/>
       <c r="C43" s="23"/>
@@ -1858,307 +1838,136 @@
       <c r="O43" s="4"/>
       <c r="P43" s="2"/>
     </row>
-    <row r="44" spans="1:16" ht="6" customHeight="1">
+    <row r="44" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" s="23"/>
+      <c r="C44" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="22"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
       <c r="O44" s="4"/>
       <c r="P44" s="2"/>
     </row>
-    <row r="45" spans="1:16" ht="6" customHeight="1">
+    <row r="45" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="23"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
       <c r="K45" s="20"/>
       <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
       <c r="O45" s="4"/>
       <c r="P45" s="2"/>
     </row>
-    <row r="46" spans="1:16" ht="6" customHeight="1">
+    <row r="46" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="4"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="5"/>
       <c r="P46" s="2"/>
     </row>
-    <row r="47" spans="1:16" ht="6" customHeight="1">
-      <c r="A47" s="3"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="4"/>
+    <row r="47" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="2"/>
       <c r="P47" s="2"/>
     </row>
-    <row r="48" spans="1:16" ht="6" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="4"/>
+    <row r="48" spans="1:16" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="M48" s="31"/>
+      <c r="N48" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" ht="6" customHeight="1">
-      <c r="A49" s="3"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="2"/>
-    </row>
-    <row r="50" spans="1:16" ht="6" customHeight="1">
-      <c r="A50" s="3"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="23"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="4"/>
-      <c r="P50" s="2"/>
-    </row>
-    <row r="51" spans="1:16" ht="6" customHeight="1">
-      <c r="A51" s="3"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="2"/>
-    </row>
-    <row r="52" spans="1:16" ht="6" customHeight="1">
-      <c r="A52" s="3"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="2"/>
-    </row>
-    <row r="53" spans="1:16" ht="6.6" customHeight="1">
-      <c r="A53" s="3"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="2"/>
-    </row>
-    <row r="54" spans="1:16" ht="6.6" customHeight="1">
-      <c r="A54" s="3"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" ht="3" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="2"/>
-    </row>
-    <row r="56" spans="1:16" ht="6" customHeight="1">
-      <c r="A56" s="2"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="29"/>
-      <c r="F56" s="29"/>
-      <c r="G56" s="29"/>
-      <c r="H56" s="29"/>
-      <c r="I56" s="29"/>
-      <c r="J56" s="29"/>
-      <c r="K56" s="29"/>
-      <c r="L56" s="29"/>
-      <c r="M56" s="29"/>
-      <c r="N56" s="29"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-    </row>
-    <row r="57" spans="1:16" ht="9" customHeight="1">
-      <c r="A57" s="2"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="29"/>
-      <c r="J57" s="29"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="M57" s="32"/>
-      <c r="N57" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C31:C32"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="B2:N3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:J6"/>
     <mergeCell ref="K6:N6"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/프로젝트관리.xlsx
+++ b/프로젝트관리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\1stPersonalProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ai\source\오시윤_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2537FAC0-3F74-4F8F-9ED7-92BE80CB5268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1740829B-23ED-49D3-BF9E-DAB5C78C54AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="4035" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -94,6 +94,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">      설계, 기능정의, 데이터수집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 항목에 대한 데이터 분석 및 시각화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -103,7 +111,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>프로젝트명</t>
+      <t>영화 개봉 계절 예측기</t>
     </r>
     <r>
       <rPr>
@@ -117,14 +125,6 @@
       <t xml:space="preserve">
 (2025.01.13~2025.01.24)</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">      설계, 기능정의, 데이터수집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 항목에 대한 데이터 분석 및 시각화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,6 +588,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -613,18 +625,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -1027,39 +1027,39 @@
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
+      <c r="B2" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
       <c r="O2" s="6"/>
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
       <c r="O3" s="6"/>
       <c r="P3" s="2"/>
     </row>
@@ -1102,31 +1102,31 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="41" t="s">
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
       <c r="O6" s="8"/>
       <c r="P6" s="2"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="38"/>
+      <c r="C7" s="42"/>
       <c r="D7" s="16"/>
       <c r="E7" s="17">
         <v>13</v>
@@ -1220,7 +1220,7 @@
     <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="46" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="23"/>
@@ -1240,7 +1240,7 @@
     <row r="12" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="42"/>
+      <c r="C12" s="46"/>
       <c r="D12" s="23"/>
       <c r="E12" s="32"/>
       <c r="F12" s="32"/>
@@ -1276,8 +1276,8 @@
     <row r="14" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="34" t="s">
-        <v>19</v>
+      <c r="C14" s="38" t="s">
+        <v>18</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="20"/>
@@ -1296,7 +1296,7 @@
     <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="34"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="23"/>
       <c r="E15" s="20"/>
       <c r="F15" s="32"/>
@@ -1352,7 +1352,7 @@
     <row r="18" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="23"/>
@@ -1372,7 +1372,7 @@
     <row r="19" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="45"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="23"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
@@ -1408,7 +1408,7 @@
     <row r="21" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="36" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="23"/>
@@ -1428,7 +1428,7 @@
     <row r="22" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="45"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="23"/>
       <c r="E22" s="32"/>
       <c r="F22" s="32"/>
@@ -1464,7 +1464,7 @@
     <row r="24" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="23"/>
@@ -1484,7 +1484,7 @@
     <row r="25" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="45"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="23"/>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -1541,7 +1541,7 @@
     <row r="28" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="37" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="23"/>
@@ -1561,7 +1561,7 @@
     <row r="29" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="46"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="23"/>
       <c r="E29" s="20"/>
       <c r="F29" s="32"/>
@@ -1597,7 +1597,7 @@
     <row r="31" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="37" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="23"/>
@@ -1617,7 +1617,7 @@
     <row r="32" spans="1:25" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="46"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="23"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -1673,7 +1673,7 @@
     <row r="35" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="19"/>
-      <c r="C35" s="43" t="s">
+      <c r="C35" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="23"/>
@@ -1693,7 +1693,7 @@
     <row r="36" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="43"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="23"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
@@ -1729,8 +1729,8 @@
     <row r="38" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="43" t="s">
-        <v>20</v>
+      <c r="C38" s="34" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="20"/>
@@ -1749,7 +1749,7 @@
     <row r="39" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="43"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="23"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -1785,7 +1785,7 @@
     <row r="41" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="34" t="s">
         <v>14</v>
       </c>
       <c r="D41" s="23"/>
@@ -1805,7 +1805,7 @@
     <row r="42" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="43"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
@@ -1841,7 +1841,7 @@
     <row r="44" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="44" t="s">
+      <c r="C44" s="35" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="22"/>
@@ -1861,7 +1861,7 @@
     <row r="45" spans="1:16" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="19"/>
-      <c r="C45" s="44"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="22"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
@@ -1953,6 +1953,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B2:N3"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C44:C45"/>
@@ -1962,12 +1968,6 @@
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:N3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
